--- a/data/pca/factorExposure/factorExposure_2018-04-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-04-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01240692883709009</v>
+        <v>-0.01729297485113076</v>
       </c>
       <c r="C2">
-        <v>-0.02542208511551545</v>
+        <v>0.01827693333575222</v>
       </c>
       <c r="D2">
-        <v>-0.01548044421666846</v>
+        <v>-0.0299042383880007</v>
       </c>
       <c r="E2">
-        <v>-0.01788014014450438</v>
+        <v>0.01602512921007498</v>
       </c>
       <c r="F2">
-        <v>0.1019321299213237</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.003362985488179917</v>
+      </c>
+      <c r="G2">
+        <v>-0.04422887189672492</v>
+      </c>
+      <c r="H2">
+        <v>0.04521376596855101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08607327372788022</v>
+        <v>-0.07307501601306948</v>
       </c>
       <c r="C3">
-        <v>-0.05430801343637612</v>
+        <v>-0.01156269664328259</v>
       </c>
       <c r="D3">
-        <v>-0.05815650271062198</v>
+        <v>-0.07633094894067957</v>
       </c>
       <c r="E3">
-        <v>0.02943123358613481</v>
+        <v>0.004905662383780999</v>
       </c>
       <c r="F3">
-        <v>0.3602203916547454</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.01702996179233479</v>
+      </c>
+      <c r="G3">
+        <v>-0.1625909556238422</v>
+      </c>
+      <c r="H3">
+        <v>0.1317942044002457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04482737622705171</v>
+        <v>-0.04056162024980221</v>
       </c>
       <c r="C4">
-        <v>-0.01565881305514458</v>
+        <v>0.005139058328454893</v>
       </c>
       <c r="D4">
-        <v>-0.001953024296219697</v>
+        <v>-0.06280375021724643</v>
       </c>
       <c r="E4">
-        <v>-0.05025213022006009</v>
+        <v>-0.01880711707580881</v>
       </c>
       <c r="F4">
-        <v>0.06633451376268214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.04383548714084298</v>
+      </c>
+      <c r="G4">
+        <v>-0.04153014855429583</v>
+      </c>
+      <c r="H4">
+        <v>0.05679556136998575</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03288313925426029</v>
+        <v>-0.02410141013404974</v>
       </c>
       <c r="C6">
-        <v>-0.01575688648129854</v>
+        <v>0.001588275141660303</v>
       </c>
       <c r="D6">
-        <v>-0.009240932742303228</v>
+        <v>-0.06257371426372339</v>
       </c>
       <c r="E6">
-        <v>-0.02977236180472485</v>
+        <v>-0.003900427632251606</v>
       </c>
       <c r="F6">
-        <v>0.011179605722941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02956071555826557</v>
+      </c>
+      <c r="G6">
+        <v>-0.01572332317466784</v>
+      </c>
+      <c r="H6">
+        <v>0.06356114139092708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04009048314643755</v>
+        <v>-0.01493374022203636</v>
       </c>
       <c r="C7">
-        <v>0.0270272844163736</v>
+        <v>0.003473736686455972</v>
       </c>
       <c r="D7">
-        <v>-0.01527060016961474</v>
+        <v>-0.0355211604311573</v>
       </c>
       <c r="E7">
-        <v>-0.03864138069483327</v>
+        <v>-0.04443796684226287</v>
       </c>
       <c r="F7">
-        <v>0.04381828022012761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.00246738654911926</v>
+      </c>
+      <c r="G7">
+        <v>-0.02333734419146201</v>
+      </c>
+      <c r="H7">
+        <v>0.04198796094042855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01864056798349124</v>
+        <v>-0.004485943173288287</v>
       </c>
       <c r="C8">
-        <v>-0.00650125422115403</v>
+        <v>-0.001973078900919722</v>
       </c>
       <c r="D8">
-        <v>-0.01465923614611063</v>
+        <v>-0.01506934720872833</v>
       </c>
       <c r="E8">
-        <v>-0.04384004996477057</v>
+        <v>-0.008240026694798666</v>
       </c>
       <c r="F8">
-        <v>0.07273798675193273</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01722605439979005</v>
+      </c>
+      <c r="G8">
+        <v>-0.04079272654252555</v>
+      </c>
+      <c r="H8">
+        <v>0.03774930681020204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03420505137259893</v>
+        <v>-0.03030705069245027</v>
       </c>
       <c r="C9">
-        <v>-0.01189264416525517</v>
+        <v>0.001870439690066292</v>
       </c>
       <c r="D9">
-        <v>-0.01099897220867168</v>
+        <v>-0.04668041132756819</v>
       </c>
       <c r="E9">
-        <v>-0.04104808469259653</v>
+        <v>-0.008162009175231754</v>
       </c>
       <c r="F9">
-        <v>0.08387635801441344</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01954317330837306</v>
+      </c>
+      <c r="G9">
+        <v>-0.04625677170186453</v>
+      </c>
+      <c r="H9">
+        <v>0.05487293745753304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03601872379382014</v>
+        <v>-0.1227454379935752</v>
       </c>
       <c r="C10">
-        <v>-0.005729835389034899</v>
+        <v>-0.00716420082243801</v>
       </c>
       <c r="D10">
-        <v>0.08028881451378578</v>
+        <v>0.1584927353361517</v>
       </c>
       <c r="E10">
-        <v>0.1387446223644156</v>
+        <v>-0.0008606524151238807</v>
       </c>
       <c r="F10">
-        <v>0.0557925283023465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.03611901981797403</v>
+      </c>
+      <c r="G10">
+        <v>-0.03195960305744045</v>
+      </c>
+      <c r="H10">
+        <v>-0.0005521081795855291</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.02814010077167563</v>
+        <v>-0.01689215259985482</v>
       </c>
       <c r="C11">
-        <v>-0.02202017115812902</v>
+        <v>-0.009502393651062261</v>
       </c>
       <c r="D11">
-        <v>-0.01605551925375793</v>
+        <v>-0.04986623287825217</v>
       </c>
       <c r="E11">
-        <v>-0.03862081785395002</v>
+        <v>0.001261745108465539</v>
       </c>
       <c r="F11">
-        <v>0.03825823050194382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.01114438790062741</v>
+      </c>
+      <c r="G11">
+        <v>-0.02658510046428867</v>
+      </c>
+      <c r="H11">
+        <v>0.0498210412875033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03763979491295321</v>
+        <v>-0.0219018769055633</v>
       </c>
       <c r="C12">
-        <v>-0.02132125062124612</v>
+        <v>-0.005977512809675822</v>
       </c>
       <c r="D12">
-        <v>-0.008963148229862382</v>
+        <v>-0.04825516009770174</v>
       </c>
       <c r="E12">
-        <v>-0.04424261182364143</v>
+        <v>-0.009850368976271097</v>
       </c>
       <c r="F12">
-        <v>0.01235188172007467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01417907742093083</v>
+      </c>
+      <c r="G12">
+        <v>-0.007151529393668209</v>
+      </c>
+      <c r="H12">
+        <v>0.02238184570768863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.008518971618305792</v>
+        <v>-0.02325301008411224</v>
       </c>
       <c r="C13">
-        <v>-0.02158207661582377</v>
+        <v>0.01429575245336452</v>
       </c>
       <c r="D13">
-        <v>-0.001899517355821974</v>
+        <v>-0.02455878833137538</v>
       </c>
       <c r="E13">
-        <v>-0.01677142970367555</v>
+        <v>0.01182385918258533</v>
       </c>
       <c r="F13">
-        <v>0.07691133147840443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02032579617698598</v>
+      </c>
+      <c r="G13">
+        <v>-0.06138865385133648</v>
+      </c>
+      <c r="H13">
+        <v>0.07748251413581404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.02228231905011593</v>
+        <v>-0.01514671195799629</v>
       </c>
       <c r="C14">
-        <v>0.0004973656252208286</v>
+        <v>0.001413644051280952</v>
       </c>
       <c r="D14">
-        <v>-0.002133337013841571</v>
+        <v>-0.01620673783193637</v>
       </c>
       <c r="E14">
-        <v>-0.03248457857187023</v>
+        <v>-0.01479618414932771</v>
       </c>
       <c r="F14">
-        <v>0.05305493210482365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.01287215055147732</v>
+      </c>
+      <c r="G14">
+        <v>-0.04170397704079756</v>
+      </c>
+      <c r="H14">
+        <v>0.01408558385395546</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02764280971539354</v>
+        <v>-0.01996279760434774</v>
       </c>
       <c r="C16">
-        <v>-0.02114457094326787</v>
+        <v>-0.009296250886961075</v>
       </c>
       <c r="D16">
-        <v>-0.01630614718032864</v>
+        <v>-0.04079085896908397</v>
       </c>
       <c r="E16">
-        <v>-0.04443634597771383</v>
+        <v>-0.0023386736964646</v>
       </c>
       <c r="F16">
-        <v>0.03711343545639852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01443306006784731</v>
+      </c>
+      <c r="G16">
+        <v>-0.02175230989597852</v>
+      </c>
+      <c r="H16">
+        <v>0.0380702489968154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03115295445917788</v>
+        <v>-0.02266840132953535</v>
       </c>
       <c r="C19">
-        <v>-0.02325024938498586</v>
+        <v>0.001580168254790213</v>
       </c>
       <c r="D19">
-        <v>-0.01479023281346023</v>
+        <v>-0.04603371280435779</v>
       </c>
       <c r="E19">
-        <v>-0.04264003760875573</v>
+        <v>-0.00648082409570166</v>
       </c>
       <c r="F19">
-        <v>0.08865897079768209</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.02379734783306312</v>
+      </c>
+      <c r="G19">
+        <v>-0.05706173807112935</v>
+      </c>
+      <c r="H19">
+        <v>0.06026488263258535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.001356853599467404</v>
+        <v>-0.007217513450493549</v>
       </c>
       <c r="C20">
-        <v>0.005886532948568599</v>
+        <v>0.005951777852317768</v>
       </c>
       <c r="D20">
-        <v>-0.002587278638894014</v>
+        <v>-0.02271301352717311</v>
       </c>
       <c r="E20">
-        <v>-0.02397273428289181</v>
+        <v>-0.003887845802593048</v>
       </c>
       <c r="F20">
-        <v>0.06923666638308303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01259817248995868</v>
+      </c>
+      <c r="G20">
+        <v>-0.05602988452343278</v>
+      </c>
+      <c r="H20">
+        <v>0.03005433882662314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01722475718616089</v>
+        <v>-0.01318829124445971</v>
       </c>
       <c r="C21">
-        <v>0.01680229659475272</v>
+        <v>0.007269948449464322</v>
       </c>
       <c r="D21">
-        <v>-0.02186955090104117</v>
+        <v>-0.02558380085934379</v>
       </c>
       <c r="E21">
-        <v>-0.02859933131243688</v>
+        <v>-0.02012334154883854</v>
       </c>
       <c r="F21">
-        <v>0.0344294279836782</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.006204116201166335</v>
+      </c>
+      <c r="G21">
+        <v>-0.04960815338458729</v>
+      </c>
+      <c r="H21">
+        <v>0.04348217721938801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02543648092418637</v>
+        <v>-0.01495740603515514</v>
       </c>
       <c r="C24">
-        <v>-0.01942047344377143</v>
+        <v>-0.003841445679700363</v>
       </c>
       <c r="D24">
-        <v>-0.00454465924663386</v>
+        <v>-0.04373743355986266</v>
       </c>
       <c r="E24">
-        <v>-0.02745607896362713</v>
+        <v>-0.0006315279743823298</v>
       </c>
       <c r="F24">
-        <v>0.03972563805839842</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.009904808437635375</v>
+      </c>
+      <c r="G24">
+        <v>-0.01661370683577263</v>
+      </c>
+      <c r="H24">
+        <v>0.0467415920105589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02949202676725007</v>
+        <v>-0.02709748268541476</v>
       </c>
       <c r="C25">
-        <v>-0.01800941885804032</v>
+        <v>-0.001541783775146158</v>
       </c>
       <c r="D25">
-        <v>-0.01756938070388197</v>
+        <v>-0.04657223913949109</v>
       </c>
       <c r="E25">
-        <v>-0.03551675108711882</v>
+        <v>-0.006210206544768787</v>
       </c>
       <c r="F25">
-        <v>0.04172790147661914</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01761929075342873</v>
+      </c>
+      <c r="G25">
+        <v>-0.02130768785685117</v>
+      </c>
+      <c r="H25">
+        <v>0.0446169620252497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01653972015397795</v>
+        <v>-0.01471436800557297</v>
       </c>
       <c r="C26">
-        <v>-0.01310754992610567</v>
+        <v>0.01912169769478224</v>
       </c>
       <c r="D26">
-        <v>-0.01751192973446615</v>
+        <v>-0.01001224971354425</v>
       </c>
       <c r="E26">
-        <v>-0.01213106290728952</v>
+        <v>-9.584545544371145e-05</v>
       </c>
       <c r="F26">
-        <v>0.05804539573113961</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.002062834460575602</v>
+      </c>
+      <c r="G26">
+        <v>-0.02872087967622185</v>
+      </c>
+      <c r="H26">
+        <v>0.02443243656731491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.0407906431285175</v>
+        <v>-0.01785450641571092</v>
       </c>
       <c r="C27">
-        <v>-0.02561798464460376</v>
+        <v>-0.006483430190721502</v>
       </c>
       <c r="D27">
-        <v>0.01885901389168323</v>
+        <v>-0.01470460507707013</v>
       </c>
       <c r="E27">
-        <v>-0.03219748528568542</v>
+        <v>-0.004687605017301423</v>
       </c>
       <c r="F27">
-        <v>0.0227347354582372</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.01132148765671699</v>
+      </c>
+      <c r="G27">
+        <v>-0.00693004562625766</v>
+      </c>
+      <c r="H27">
+        <v>-0.0006774090157829883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06105108117806761</v>
+        <v>-0.1723225244650951</v>
       </c>
       <c r="C28">
-        <v>-0.01112823418267383</v>
+        <v>0.001241509333858473</v>
       </c>
       <c r="D28">
-        <v>0.1099300690284945</v>
+        <v>0.2040992168822891</v>
       </c>
       <c r="E28">
-        <v>0.1851703939377812</v>
+        <v>-0.01097552158371708</v>
       </c>
       <c r="F28">
-        <v>0.04876912511633111</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03046235192433022</v>
+      </c>
+      <c r="G28">
+        <v>-0.01723260211315878</v>
+      </c>
+      <c r="H28">
+        <v>-0.007552910475800406</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02504024402974391</v>
+        <v>-0.01976060514249768</v>
       </c>
       <c r="C29">
-        <v>-0.001386141749447948</v>
+        <v>-5.034609490570026e-05</v>
       </c>
       <c r="D29">
-        <v>-0.003242188889460008</v>
+        <v>-0.01655542641818637</v>
       </c>
       <c r="E29">
-        <v>-0.0365413542331067</v>
+        <v>-0.01465100939838351</v>
       </c>
       <c r="F29">
-        <v>0.05190599883585621</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.01424841713548584</v>
+      </c>
+      <c r="G29">
+        <v>-0.04064645810898242</v>
+      </c>
+      <c r="H29">
+        <v>0.008068223208110884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.04915235761254081</v>
+        <v>-0.04250459458533482</v>
       </c>
       <c r="C30">
-        <v>-0.07749483247109824</v>
+        <v>0.003673995643254052</v>
       </c>
       <c r="D30">
-        <v>-0.01189150736769416</v>
+        <v>-0.09449006186877554</v>
       </c>
       <c r="E30">
-        <v>-0.06544079340102414</v>
+        <v>0.03212983383001829</v>
       </c>
       <c r="F30">
-        <v>0.09760455589324725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04588499044758139</v>
+      </c>
+      <c r="G30">
+        <v>-0.06377464325857839</v>
+      </c>
+      <c r="H30">
+        <v>0.07712375778057456</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05104023541874599</v>
+        <v>-0.04790659063098118</v>
       </c>
       <c r="C31">
-        <v>-0.04103155654200018</v>
+        <v>-0.009349955742385133</v>
       </c>
       <c r="D31">
-        <v>-0.005144232602422309</v>
+        <v>-0.0300233693272679</v>
       </c>
       <c r="E31">
-        <v>-0.02913683155882262</v>
+        <v>0.003546514546056929</v>
       </c>
       <c r="F31">
-        <v>0.03542916851309678</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.004910078733257854</v>
+      </c>
+      <c r="G31">
+        <v>-0.01902108353000464</v>
+      </c>
+      <c r="H31">
+        <v>0.006245431166470367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.02557587839852795</v>
+        <v>-0.01188656954596221</v>
       </c>
       <c r="C32">
-        <v>0.009343541085560743</v>
+        <v>-0.0130915392400395</v>
       </c>
       <c r="D32">
-        <v>-0.02339225042948167</v>
+        <v>-0.01003588492099104</v>
       </c>
       <c r="E32">
-        <v>-0.06818704891755302</v>
+        <v>-0.02990182631140869</v>
       </c>
       <c r="F32">
-        <v>0.05566106428980735</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03640268851460815</v>
+      </c>
+      <c r="G32">
+        <v>-0.03617278246286062</v>
+      </c>
+      <c r="H32">
+        <v>0.04991350697935187</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.02982627014974462</v>
+        <v>-0.02790571385691122</v>
       </c>
       <c r="C33">
-        <v>-0.04561550520336275</v>
+        <v>0.0007814834740667396</v>
       </c>
       <c r="D33">
-        <v>-0.03881097203087452</v>
+        <v>-0.04689185197914612</v>
       </c>
       <c r="E33">
-        <v>-0.03551899797686162</v>
+        <v>0.01993061383773699</v>
       </c>
       <c r="F33">
-        <v>0.06788219392401773</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.00119190932276687</v>
+      </c>
+      <c r="G33">
+        <v>-0.04956904302652985</v>
+      </c>
+      <c r="H33">
+        <v>0.05595543949663884</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03249267330355633</v>
+        <v>-0.02444375306759651</v>
       </c>
       <c r="C34">
-        <v>-0.01422961527051419</v>
+        <v>-0.01746787608302719</v>
       </c>
       <c r="D34">
-        <v>-0.0100030753531923</v>
+        <v>-0.04450816874765805</v>
       </c>
       <c r="E34">
-        <v>-0.04949893936785621</v>
+        <v>-0.01317570229840356</v>
       </c>
       <c r="F34">
-        <v>0.04472326388777451</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01779933743024287</v>
+      </c>
+      <c r="G34">
+        <v>-0.01246108934167288</v>
+      </c>
+      <c r="H34">
+        <v>0.03672358039712365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01720000120893511</v>
+        <v>-0.01677392807007063</v>
       </c>
       <c r="C36">
-        <v>-0.000354022778130922</v>
+        <v>0.006587682791318144</v>
       </c>
       <c r="D36">
-        <v>-0.005539675723212363</v>
+        <v>-0.006151615156567433</v>
       </c>
       <c r="E36">
-        <v>-0.02015816727685073</v>
+        <v>-0.008925895013312523</v>
       </c>
       <c r="F36">
-        <v>0.02935975694117331</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.002068808007060866</v>
+      </c>
+      <c r="G36">
+        <v>-0.02097856767544617</v>
+      </c>
+      <c r="H36">
+        <v>0.01840905655863507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.007505690008379173</v>
+        <v>-0.02632787619051107</v>
       </c>
       <c r="C38">
-        <v>-0.006293446136334767</v>
+        <v>-0.01553248060927429</v>
       </c>
       <c r="D38">
-        <v>-0.01141132879739649</v>
+        <v>-0.01592753657659103</v>
       </c>
       <c r="E38">
-        <v>0.01829513946527686</v>
+        <v>0.0004774683250953186</v>
       </c>
       <c r="F38">
-        <v>0.04105169435355058</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.009233801238297803</v>
+      </c>
+      <c r="G38">
+        <v>-0.02440611443443202</v>
+      </c>
+      <c r="H38">
+        <v>0.04217906680201235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.0257352307117235</v>
+        <v>-0.01029958582805732</v>
       </c>
       <c r="C39">
-        <v>-0.02190169574288352</v>
+        <v>-0.005144910599982284</v>
       </c>
       <c r="D39">
-        <v>-0.03102716870388939</v>
+        <v>-0.08918868529451369</v>
       </c>
       <c r="E39">
-        <v>-0.05544439637596995</v>
+        <v>0.007288080117856537</v>
       </c>
       <c r="F39">
-        <v>0.05349475588728182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01646717931434619</v>
+      </c>
+      <c r="G39">
+        <v>-0.0390058189010813</v>
+      </c>
+      <c r="H39">
+        <v>0.07847908254765487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.016601371980595</v>
+        <v>-0.0266274496384398</v>
       </c>
       <c r="C40">
-        <v>-0.05010359471677787</v>
+        <v>0.0001987118750573001</v>
       </c>
       <c r="D40">
-        <v>0.00473700271787438</v>
+        <v>-0.03498128474223051</v>
       </c>
       <c r="E40">
-        <v>-0.03783207873114953</v>
+        <v>0.02428828409438026</v>
       </c>
       <c r="F40">
-        <v>0.05888255088975451</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03407079569868317</v>
+      </c>
+      <c r="G40">
+        <v>-0.02305231791987131</v>
+      </c>
+      <c r="H40">
+        <v>0.06937024639558176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.004360603451866431</v>
+        <v>-0.01332110436478074</v>
       </c>
       <c r="C41">
-        <v>-0.0001799315144582354</v>
+        <v>0.002403723187440523</v>
       </c>
       <c r="D41">
-        <v>-0.007818076695266138</v>
+        <v>0.01289376818864552</v>
       </c>
       <c r="E41">
-        <v>-0.002067654324559208</v>
+        <v>-0.003112531622949762</v>
       </c>
       <c r="F41">
-        <v>0.008830011196091768</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.003282189550693336</v>
+      </c>
+      <c r="G41">
+        <v>-8.587113421366887e-05</v>
+      </c>
+      <c r="H41">
+        <v>-0.001115009646637009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.2271913364033803</v>
+        <v>-0.1421768479933879</v>
       </c>
       <c r="C42">
-        <v>-0.2293304922940709</v>
+        <v>0.0782287886410606</v>
       </c>
       <c r="D42">
-        <v>-0.7290002353907491</v>
+        <v>-0.2408494216598445</v>
       </c>
       <c r="E42">
-        <v>0.4841048795602076</v>
+        <v>0.2215371695537314</v>
       </c>
       <c r="F42">
-        <v>-0.275766522624231</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.890240561235108</v>
+      </c>
+      <c r="G42">
+        <v>0.2303530519497956</v>
+      </c>
+      <c r="H42">
+        <v>0.0008783272422068813</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003768646705391859</v>
+        <v>-0.01426526856515309</v>
       </c>
       <c r="C43">
-        <v>-0.00324322493752232</v>
+        <v>0.002706657968959171</v>
       </c>
       <c r="D43">
-        <v>-0.01008948051506822</v>
+        <v>0.00874895436554462</v>
       </c>
       <c r="E43">
-        <v>-0.004444477492833053</v>
+        <v>1.323986757130659e-05</v>
       </c>
       <c r="F43">
-        <v>0.02726518015195335</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003312188155322194</v>
+      </c>
+      <c r="G43">
+        <v>-0.0009472380348505958</v>
+      </c>
+      <c r="H43">
+        <v>0.007526654466012813</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.02684462095631803</v>
+        <v>-0.01515362550748772</v>
       </c>
       <c r="C44">
-        <v>-0.002935866690646753</v>
+        <v>-0.00474707762146975</v>
       </c>
       <c r="D44">
-        <v>-0.01784549892291097</v>
+        <v>-0.04236416752668729</v>
       </c>
       <c r="E44">
-        <v>-0.02018653587786942</v>
+        <v>-0.0121528434469883</v>
       </c>
       <c r="F44">
-        <v>0.09969181331514429</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.001009591673756506</v>
+      </c>
+      <c r="G44">
+        <v>-0.04317766452988105</v>
+      </c>
+      <c r="H44">
+        <v>0.06276359156187616</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02034427882950334</v>
+        <v>-0.0126976505954987</v>
       </c>
       <c r="C46">
-        <v>-0.01272281319321708</v>
+        <v>0.005691611547230846</v>
       </c>
       <c r="D46">
-        <v>-0.02167109641987526</v>
+        <v>-0.01509959828296659</v>
       </c>
       <c r="E46">
-        <v>-0.04252486871911539</v>
+        <v>-0.002100997183463323</v>
       </c>
       <c r="F46">
-        <v>0.062233938875784</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.00899703653290683</v>
+      </c>
+      <c r="G46">
+        <v>-0.04451061915383717</v>
+      </c>
+      <c r="H46">
+        <v>0.01033335298070916</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.07922818149928521</v>
+        <v>-0.06760548110863268</v>
       </c>
       <c r="C47">
-        <v>-0.05390516037763234</v>
+        <v>-0.0243983374760579</v>
       </c>
       <c r="D47">
-        <v>0.002438855977107004</v>
+        <v>-0.05593805748623275</v>
       </c>
       <c r="E47">
-        <v>-0.03833588679572963</v>
+        <v>-0.004634538145421556</v>
       </c>
       <c r="F47">
-        <v>0.0167509959272213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01293991484529784</v>
+      </c>
+      <c r="G47">
+        <v>0.008992003483707928</v>
+      </c>
+      <c r="H47">
+        <v>-0.01828488751340527</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01790183716091362</v>
+        <v>-0.0184739611132858</v>
       </c>
       <c r="C48">
-        <v>-0.01149137163954432</v>
+        <v>-0.004552767809444564</v>
       </c>
       <c r="D48">
-        <v>-0.01116292352407766</v>
+        <v>-0.01516099252351175</v>
       </c>
       <c r="E48">
-        <v>-0.02364793975459397</v>
+        <v>-0.001787686311102267</v>
       </c>
       <c r="F48">
-        <v>0.03455118417954232</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.006160129213440249</v>
+      </c>
+      <c r="G48">
+        <v>-0.02235572084321349</v>
+      </c>
+      <c r="H48">
+        <v>0.02049368880805989</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08352525000327521</v>
+        <v>-0.0670079437306622</v>
       </c>
       <c r="C50">
-        <v>-0.03810016406370919</v>
+        <v>-0.02189700627562072</v>
       </c>
       <c r="D50">
-        <v>-0.02141150493863561</v>
+        <v>-0.05551203534888035</v>
       </c>
       <c r="E50">
-        <v>-0.04144143539340008</v>
+        <v>-0.01615404498130943</v>
       </c>
       <c r="F50">
-        <v>0.0272162933683395</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.003701615402025574</v>
+      </c>
+      <c r="G50">
+        <v>-0.005249536927940135</v>
+      </c>
+      <c r="H50">
+        <v>-0.01168112241693483</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01902033352037383</v>
+        <v>-0.01742117331338329</v>
       </c>
       <c r="C51">
-        <v>-0.005790047569896461</v>
+        <v>0.00161724046415935</v>
       </c>
       <c r="D51">
-        <v>0.003713016839481964</v>
+        <v>-0.01054797587194539</v>
       </c>
       <c r="E51">
-        <v>0.003163524858395635</v>
+        <v>-0.008373692126329522</v>
       </c>
       <c r="F51">
-        <v>0.08764180344952643</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.002726228128348257</v>
+      </c>
+      <c r="G51">
+        <v>-0.03881094139722226</v>
+      </c>
+      <c r="H51">
+        <v>0.04780410228970063</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.08579106022719031</v>
+        <v>-0.08046024917815775</v>
       </c>
       <c r="C53">
-        <v>-0.05909036702099489</v>
+        <v>-0.03100362049785834</v>
       </c>
       <c r="D53">
-        <v>0.001141863392849116</v>
+        <v>-0.09360016341491513</v>
       </c>
       <c r="E53">
-        <v>-0.05468364783973309</v>
+        <v>-0.006794904277668271</v>
       </c>
       <c r="F53">
-        <v>-0.03754653921579979</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.02930500964619769</v>
+      </c>
+      <c r="G53">
+        <v>0.03341397590399728</v>
+      </c>
+      <c r="H53">
+        <v>-0.02879818299708447</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02038311405079373</v>
+        <v>-0.02812050190997316</v>
       </c>
       <c r="C54">
-        <v>-0.001486053759857946</v>
+        <v>-0.00783731583902051</v>
       </c>
       <c r="D54">
-        <v>0.0007837289414843377</v>
+        <v>0.009803115048430216</v>
       </c>
       <c r="E54">
-        <v>-0.02791260007770634</v>
+        <v>-0.007735875127396096</v>
       </c>
       <c r="F54">
-        <v>0.03845732717198249</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.004362346115143123</v>
+      </c>
+      <c r="G54">
+        <v>-0.03819765372401871</v>
+      </c>
+      <c r="H54">
+        <v>0.004963033250671704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.08683043835481613</v>
+        <v>-0.0646713972369993</v>
       </c>
       <c r="C55">
-        <v>-0.04857375128458431</v>
+        <v>-0.02744811669541518</v>
       </c>
       <c r="D55">
-        <v>-0.01106493499256339</v>
+        <v>-0.08819096788629074</v>
       </c>
       <c r="E55">
-        <v>-0.05880601504779283</v>
+        <v>-0.01267588227716551</v>
       </c>
       <c r="F55">
-        <v>-0.0285676699344133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02032273716740835</v>
+      </c>
+      <c r="G55">
+        <v>0.01071151677862431</v>
+      </c>
+      <c r="H55">
+        <v>-0.03810832617686625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1207005091109069</v>
+        <v>-0.112882961462951</v>
       </c>
       <c r="C56">
-        <v>-0.08570881512476144</v>
+        <v>-0.04717256727574496</v>
       </c>
       <c r="D56">
-        <v>0.03714464731424889</v>
+        <v>-0.1148676637966255</v>
       </c>
       <c r="E56">
-        <v>-0.07926476346934655</v>
+        <v>-0.005213704526509353</v>
       </c>
       <c r="F56">
-        <v>-0.07080242715631331</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.05478043993500201</v>
+      </c>
+      <c r="G56">
+        <v>0.06646773819451067</v>
+      </c>
+      <c r="H56">
+        <v>-0.05605790544029636</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.03651098651905076</v>
+        <v>-0.03248065451069834</v>
       </c>
       <c r="C57">
-        <v>-0.03771932451510689</v>
+        <v>0.01342704871520315</v>
       </c>
       <c r="D57">
-        <v>-0.01484443913484157</v>
+        <v>-0.0351990121056369</v>
       </c>
       <c r="E57">
-        <v>-0.003064856765172558</v>
+        <v>0.009741163937105292</v>
       </c>
       <c r="F57">
-        <v>0.05048946687814939</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.004712722234512276</v>
+      </c>
+      <c r="G57">
+        <v>-0.07056928163129361</v>
+      </c>
+      <c r="H57">
+        <v>0.05231824953763877</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1414552909555424</v>
+        <v>-0.1352201245286228</v>
       </c>
       <c r="C58">
-        <v>-0.2120802375661149</v>
+        <v>-0.0397182562816369</v>
       </c>
       <c r="D58">
-        <v>-0.1196889999121925</v>
+        <v>-0.1634805128384092</v>
       </c>
       <c r="E58">
-        <v>-0.1156150551580445</v>
+        <v>0.2308985236248665</v>
       </c>
       <c r="F58">
-        <v>0.5060270673053134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.09767046273841169</v>
+      </c>
+      <c r="G58">
+        <v>-0.8048540824463323</v>
+      </c>
+      <c r="H58">
+        <v>-0.3975212316631904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.04629465563189228</v>
+        <v>-0.1854999619813806</v>
       </c>
       <c r="C59">
-        <v>-0.03025637918611614</v>
+        <v>-0.007435094259055886</v>
       </c>
       <c r="D59">
-        <v>0.1212697662530603</v>
+        <v>0.2023852290759043</v>
       </c>
       <c r="E59">
-        <v>0.1506721385717161</v>
+        <v>0.005851051227488051</v>
       </c>
       <c r="F59">
-        <v>0.07267915541551674</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.0009163429900404155</v>
+      </c>
+      <c r="G59">
+        <v>-0.01618786198398983</v>
+      </c>
+      <c r="H59">
+        <v>0.02559057675653465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1171020997465317</v>
+        <v>-0.1982205380805785</v>
       </c>
       <c r="C60">
-        <v>-0.1193776887004811</v>
+        <v>-0.02444678343511814</v>
       </c>
       <c r="D60">
-        <v>-0.01866993674856634</v>
+        <v>-0.03580657636508153</v>
       </c>
       <c r="E60">
-        <v>0.03468554113529738</v>
+        <v>0.05467245296560426</v>
       </c>
       <c r="F60">
-        <v>0.161078979516546</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05513384186314211</v>
+      </c>
+      <c r="G60">
+        <v>-0.02741274433953799</v>
+      </c>
+      <c r="H60">
+        <v>0.3612156845174352</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02063546312097946</v>
+        <v>-0.01861418617658031</v>
       </c>
       <c r="C61">
-        <v>-0.01188290401674246</v>
+        <v>-0.008656755128630619</v>
       </c>
       <c r="D61">
-        <v>-0.0238792439243367</v>
+        <v>-0.05714631812565815</v>
       </c>
       <c r="E61">
-        <v>-0.03641646676938162</v>
+        <v>-0.002667554155971464</v>
       </c>
       <c r="F61">
-        <v>0.02314818028484451</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.02041579942653193</v>
+      </c>
+      <c r="G61">
+        <v>-0.02575859566577741</v>
+      </c>
+      <c r="H61">
+        <v>0.05897540202027385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.01135343648776111</v>
+        <v>-0.009912124932420678</v>
       </c>
       <c r="C63">
-        <v>-0.007397500706966107</v>
+        <v>0.002305835482248518</v>
       </c>
       <c r="D63">
-        <v>-0.01680039995354154</v>
+        <v>-0.02430654853331474</v>
       </c>
       <c r="E63">
-        <v>-0.02970853445400186</v>
+        <v>-0.00532558158573261</v>
       </c>
       <c r="F63">
-        <v>0.007504266171713934</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01085297937321095</v>
+      </c>
+      <c r="G63">
+        <v>-0.0163989497438906</v>
+      </c>
+      <c r="H63">
+        <v>0.01559509990623774</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0348840640144536</v>
+        <v>-0.03571405840217154</v>
       </c>
       <c r="C64">
-        <v>-0.006451959467106932</v>
+        <v>-0.007818619996163515</v>
       </c>
       <c r="D64">
-        <v>-0.01315908580556702</v>
+        <v>-0.04333683646042594</v>
       </c>
       <c r="E64">
-        <v>-0.03990912677763903</v>
+        <v>-0.01061992020248469</v>
       </c>
       <c r="F64">
-        <v>0.03032820451589077</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.002452687214239306</v>
+      </c>
+      <c r="G64">
+        <v>-0.006768785572443361</v>
+      </c>
+      <c r="H64">
+        <v>0.04793212921227508</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03618460902052703</v>
+        <v>-0.03902327363223097</v>
       </c>
       <c r="C65">
-        <v>-0.01721834198869709</v>
+        <v>-0.0007570420702933061</v>
       </c>
       <c r="D65">
-        <v>-0.009066364129726267</v>
+        <v>-0.07105658595664362</v>
       </c>
       <c r="E65">
-        <v>-0.0318791916941897</v>
+        <v>-0.005880769692647444</v>
       </c>
       <c r="F65">
-        <v>0.004901510829648657</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03850825104147585</v>
+      </c>
+      <c r="G65">
+        <v>0.0006862188214198225</v>
+      </c>
+      <c r="H65">
+        <v>0.07167384044302989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03207950713390015</v>
+        <v>-0.01860564823225646</v>
       </c>
       <c r="C66">
-        <v>-0.03472395249954756</v>
+        <v>-0.01212252858829356</v>
       </c>
       <c r="D66">
-        <v>-0.01984268726133236</v>
+        <v>-0.1130241845070369</v>
       </c>
       <c r="E66">
-        <v>-0.0728293543342373</v>
+        <v>0.008743525485376524</v>
       </c>
       <c r="F66">
-        <v>0.03770796725799517</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.03847397659451784</v>
+      </c>
+      <c r="G66">
+        <v>-0.03624562110003469</v>
+      </c>
+      <c r="H66">
+        <v>0.08037184064976774</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.0161815028023725</v>
+        <v>-0.04719822410597591</v>
       </c>
       <c r="C67">
-        <v>-0.0159976953840569</v>
+        <v>-0.0172117959467102</v>
       </c>
       <c r="D67">
-        <v>0.0009737849362291854</v>
+        <v>-0.01922303316784243</v>
       </c>
       <c r="E67">
-        <v>0.01887382394101102</v>
+        <v>0.002621599294507185</v>
       </c>
       <c r="F67">
-        <v>0.02410804277749776</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01947450750856308</v>
+      </c>
+      <c r="G67">
+        <v>-0.01416669225648497</v>
+      </c>
+      <c r="H67">
+        <v>0.04196439457291084</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06325525052757251</v>
+        <v>-0.1837243245976026</v>
       </c>
       <c r="C68">
-        <v>-0.02831100410012873</v>
+        <v>0.01563598360702336</v>
       </c>
       <c r="D68">
-        <v>0.1312016498259705</v>
+        <v>0.2233564855243972</v>
       </c>
       <c r="E68">
-        <v>0.1649806798786592</v>
+        <v>0.005361236636972395</v>
       </c>
       <c r="F68">
-        <v>0.06349176684217646</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.03931064444670929</v>
+      </c>
+      <c r="G68">
+        <v>-0.02684650307160351</v>
+      </c>
+      <c r="H68">
+        <v>-0.05342483298893347</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05650461040791904</v>
+        <v>-0.06040659956896717</v>
       </c>
       <c r="C69">
-        <v>-0.04317378226982575</v>
+        <v>-0.02645962068558252</v>
       </c>
       <c r="D69">
-        <v>0.01003788438654066</v>
+        <v>-0.05041775228328209</v>
       </c>
       <c r="E69">
-        <v>-0.04096297105854001</v>
+        <v>-0.001931050876741499</v>
       </c>
       <c r="F69">
-        <v>0.01204385071696256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02868836521563264</v>
+      </c>
+      <c r="G69">
+        <v>0.008419617768103642</v>
+      </c>
+      <c r="H69">
+        <v>0.01315672499796774</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06430033854836054</v>
+        <v>-0.1675920940970644</v>
       </c>
       <c r="C71">
-        <v>-0.03658638794225553</v>
+        <v>0.00416818237277827</v>
       </c>
       <c r="D71">
-        <v>0.1159564004581738</v>
+        <v>0.1816398001956461</v>
       </c>
       <c r="E71">
-        <v>0.210756660574287</v>
+        <v>0.01166127660258567</v>
       </c>
       <c r="F71">
-        <v>0.06085636409333077</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04851022103433585</v>
+      </c>
+      <c r="G71">
+        <v>-0.03223037776040121</v>
+      </c>
+      <c r="H71">
+        <v>-0.02241162227748779</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.09508297260475017</v>
+        <v>-0.07083652529879197</v>
       </c>
       <c r="C72">
-        <v>-0.07683650999550905</v>
+        <v>-0.03445931932963241</v>
       </c>
       <c r="D72">
-        <v>0.008323217999467418</v>
+        <v>-0.08673199521051139</v>
       </c>
       <c r="E72">
-        <v>-0.07244614639139985</v>
+        <v>0.01323877910642806</v>
       </c>
       <c r="F72">
-        <v>0.071386029656984</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06182242325314241</v>
+      </c>
+      <c r="G72">
+        <v>-0.02423253956633015</v>
+      </c>
+      <c r="H72">
+        <v>0.1321994866674166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1580114835644527</v>
+        <v>-0.2583951087784919</v>
       </c>
       <c r="C73">
-        <v>-0.1926215439885791</v>
+        <v>-0.03528690155595975</v>
       </c>
       <c r="D73">
-        <v>-0.02049145060395692</v>
+        <v>-0.1099259036401671</v>
       </c>
       <c r="E73">
-        <v>0.1021888399378457</v>
+        <v>0.09433286978550977</v>
       </c>
       <c r="F73">
-        <v>0.2101944387903151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.06109479467846262</v>
+      </c>
+      <c r="G73">
+        <v>-0.04185696622475647</v>
+      </c>
+      <c r="H73">
+        <v>0.4666943932461499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1152202347509992</v>
+        <v>-0.1109258688865402</v>
       </c>
       <c r="C74">
-        <v>-0.07822752571238049</v>
+        <v>-0.04707579807137882</v>
       </c>
       <c r="D74">
-        <v>0.01103528809136454</v>
+        <v>-0.1198620506526437</v>
       </c>
       <c r="E74">
-        <v>-0.05202363913282015</v>
+        <v>-0.01221650686982965</v>
       </c>
       <c r="F74">
-        <v>-0.08659447074349297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03935077679387504</v>
+      </c>
+      <c r="G74">
+        <v>0.05294852301631402</v>
+      </c>
+      <c r="H74">
+        <v>-0.02151297078977362</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.191869636815949</v>
+        <v>-0.2152924974642821</v>
       </c>
       <c r="C75">
-        <v>-0.1564462651377305</v>
+        <v>-0.08714150461810534</v>
       </c>
       <c r="D75">
-        <v>0.08913703280433935</v>
+        <v>-0.1845489767015398</v>
       </c>
       <c r="E75">
-        <v>-0.1241323469858968</v>
+        <v>0.006372676146818242</v>
       </c>
       <c r="F75">
-        <v>-0.1085511858597089</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.09769740655147277</v>
+      </c>
+      <c r="G75">
+        <v>0.1092780994306984</v>
+      </c>
+      <c r="H75">
+        <v>-0.1257291986141078</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2460004680356924</v>
+        <v>-0.1764446046494711</v>
       </c>
       <c r="C76">
-        <v>-0.1427343420294817</v>
+        <v>-0.07999293517986017</v>
       </c>
       <c r="D76">
-        <v>0.09433344353835815</v>
+        <v>-0.1823431982556373</v>
       </c>
       <c r="E76">
-        <v>-0.1605175131646027</v>
+        <v>-0.04263607246734599</v>
       </c>
       <c r="F76">
-        <v>-0.1971058363846304</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.09091783428223364</v>
+      </c>
+      <c r="G76">
+        <v>0.1115269586948648</v>
+      </c>
+      <c r="H76">
+        <v>-0.1134991289004654</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.09672372737812435</v>
+        <v>-0.06146793174251795</v>
       </c>
       <c r="C77">
-        <v>-0.08613693765987511</v>
+        <v>-0.008684632723279292</v>
       </c>
       <c r="D77">
-        <v>-0.1064313624294271</v>
+        <v>-0.08560032529979347</v>
       </c>
       <c r="E77">
-        <v>-0.06072234914691414</v>
+        <v>0.01840744258107911</v>
       </c>
       <c r="F77">
-        <v>0.1584576024484168</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.01935924937136804</v>
+      </c>
+      <c r="G77">
+        <v>-0.08085248035518126</v>
+      </c>
+      <c r="H77">
+        <v>0.02204181657900354</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06409030938123575</v>
+        <v>-0.03361930695983251</v>
       </c>
       <c r="C78">
-        <v>-0.04163820087896803</v>
+        <v>-0.01096831457065945</v>
       </c>
       <c r="D78">
-        <v>-0.06216191733509923</v>
+        <v>-0.07127003300140725</v>
       </c>
       <c r="E78">
-        <v>-0.08092400596839895</v>
+        <v>-0.002688202222844415</v>
       </c>
       <c r="F78">
-        <v>0.09140747664946929</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.01656897396913039</v>
+      </c>
+      <c r="G78">
+        <v>-0.06621646019222283</v>
+      </c>
+      <c r="H78">
+        <v>0.09059089054564469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.6272166357899888</v>
+        <v>-0.1233824780766757</v>
       </c>
       <c r="C80">
-        <v>0.7594466167173907</v>
+        <v>-0.02645516022454582</v>
       </c>
       <c r="D80">
-        <v>-0.07369082872955074</v>
+        <v>-0.0968281632248726</v>
       </c>
       <c r="E80">
-        <v>0.000227419409246438</v>
+        <v>-0.9278852492667267</v>
       </c>
       <c r="F80">
-        <v>0.04354120665172122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.2366649270846432</v>
+      </c>
+      <c r="G80">
+        <v>-0.1614154474887987</v>
+      </c>
+      <c r="H80">
+        <v>-0.0002343412352073602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1575597569883148</v>
+        <v>-0.1445700078701226</v>
       </c>
       <c r="C81">
-        <v>-0.1092831830864242</v>
+        <v>-0.05695258537700786</v>
       </c>
       <c r="D81">
-        <v>0.08469572702532299</v>
+        <v>-0.1201553407211749</v>
       </c>
       <c r="E81">
-        <v>-0.09861916270185303</v>
+        <v>-0.0119862987205788</v>
       </c>
       <c r="F81">
-        <v>-0.1082388721450831</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.06714083837263637</v>
+      </c>
+      <c r="G81">
+        <v>0.07276053653577388</v>
+      </c>
+      <c r="H81">
+        <v>-0.07416811966203245</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.02804189999209068</v>
+        <v>-0.03083786431540674</v>
       </c>
       <c r="C83">
-        <v>-0.03022673717823036</v>
+        <v>-0.004474767016013491</v>
       </c>
       <c r="D83">
-        <v>-0.01868240786052901</v>
+        <v>-0.0259033927637028</v>
       </c>
       <c r="E83">
-        <v>-0.01280189499754333</v>
+        <v>0.008552410979154462</v>
       </c>
       <c r="F83">
-        <v>0.06352894529438895</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.00787661293175744</v>
+      </c>
+      <c r="G83">
+        <v>-0.04376584917709805</v>
+      </c>
+      <c r="H83">
+        <v>0.04186295698091171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2192044614085801</v>
+        <v>-0.2011801550172325</v>
       </c>
       <c r="C85">
-        <v>-0.1583028992735298</v>
+        <v>-0.07141810389465277</v>
       </c>
       <c r="D85">
-        <v>0.06989530364213942</v>
+        <v>-0.1882142549961369</v>
       </c>
       <c r="E85">
-        <v>-0.119684595128891</v>
+        <v>0.002106580505332949</v>
       </c>
       <c r="F85">
-        <v>-0.1393794078918537</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08245346037025825</v>
+      </c>
+      <c r="G85">
+        <v>0.1378848994734431</v>
+      </c>
+      <c r="H85">
+        <v>-0.06116798568910879</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00875693740292021</v>
+        <v>-0.0192126702651883</v>
       </c>
       <c r="C86">
-        <v>-0.001209854574111881</v>
+        <v>-0.001873379327628609</v>
       </c>
       <c r="D86">
-        <v>-0.04430986167205733</v>
+        <v>-0.0415193248528921</v>
       </c>
       <c r="E86">
-        <v>-0.03432820476895402</v>
+        <v>-0.003578347615742411</v>
       </c>
       <c r="F86">
-        <v>0.05120795686499694</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.006697164946464571</v>
+      </c>
+      <c r="G86">
+        <v>-0.05235876940689287</v>
+      </c>
+      <c r="H86">
+        <v>0.09511874044272223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.03752627809479659</v>
+        <v>-0.01953742163706814</v>
       </c>
       <c r="C87">
-        <v>-0.01847996731555279</v>
+        <v>-0.001573598812015601</v>
       </c>
       <c r="D87">
-        <v>-0.02982527537569897</v>
+        <v>-0.04855647576002147</v>
       </c>
       <c r="E87">
-        <v>-0.01557336778822786</v>
+        <v>-0.001886299771063533</v>
       </c>
       <c r="F87">
-        <v>0.1136764749444625</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.0003263593819464266</v>
+      </c>
+      <c r="G87">
+        <v>-0.08694862128046453</v>
+      </c>
+      <c r="H87">
+        <v>0.08240572560916741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01975448945580321</v>
+        <v>-0.03770186574829523</v>
       </c>
       <c r="C88">
-        <v>0.0004846592957645055</v>
+        <v>0.01204034875821883</v>
       </c>
       <c r="D88">
-        <v>0.01771773467516291</v>
+        <v>-0.0236198493316021</v>
       </c>
       <c r="E88">
-        <v>-0.01203964838919473</v>
+        <v>-0.0157616043026158</v>
       </c>
       <c r="F88">
-        <v>-0.01132337758236384</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01789742994946125</v>
+      </c>
+      <c r="G88">
+        <v>0.0006800613169116144</v>
+      </c>
+      <c r="H88">
+        <v>0.01376283711163814</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08814148248685706</v>
+        <v>-0.2887151009355507</v>
       </c>
       <c r="C89">
-        <v>-0.05455365803309251</v>
+        <v>0.00992697885048054</v>
       </c>
       <c r="D89">
-        <v>0.206534180759416</v>
+        <v>0.323430926003816</v>
       </c>
       <c r="E89">
-        <v>0.2725566174789392</v>
+        <v>0.01233961888368879</v>
       </c>
       <c r="F89">
-        <v>0.09418434617548765</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02404709654424737</v>
+      </c>
+      <c r="G89">
+        <v>0.01845645337399119</v>
+      </c>
+      <c r="H89">
+        <v>0.01690927191884923</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.08401724784871913</v>
+        <v>-0.2345443080731677</v>
       </c>
       <c r="C90">
-        <v>-0.02851219522904508</v>
+        <v>0.009958187543989026</v>
       </c>
       <c r="D90">
-        <v>0.2172659160807732</v>
+        <v>0.2916211756922335</v>
       </c>
       <c r="E90">
-        <v>0.2951632017324579</v>
+        <v>0.001592909066963743</v>
       </c>
       <c r="F90">
-        <v>0.06058245011153256</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.05375918992271528</v>
+      </c>
+      <c r="G90">
+        <v>0.003890800486295392</v>
+      </c>
+      <c r="H90">
+        <v>-0.0564945261648551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.2485136933090362</v>
+        <v>-0.2145821650503253</v>
       </c>
       <c r="C91">
-        <v>-0.1989441733855752</v>
+        <v>-0.08378610532696253</v>
       </c>
       <c r="D91">
-        <v>0.07529408399040563</v>
+        <v>-0.1724673940740882</v>
       </c>
       <c r="E91">
-        <v>-0.1243768844492716</v>
+        <v>0.00902953628764999</v>
       </c>
       <c r="F91">
-        <v>-0.2324654603516244</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.08653859743210895</v>
+      </c>
+      <c r="G91">
+        <v>0.1383816121771804</v>
+      </c>
+      <c r="H91">
+        <v>-0.1515037242007221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1431584931407552</v>
+        <v>-0.2724016328646727</v>
       </c>
       <c r="C92">
-        <v>-0.07385931641523828</v>
+        <v>-0.05306913743073947</v>
       </c>
       <c r="D92">
-        <v>0.3635294317823217</v>
+        <v>0.2147946637476957</v>
       </c>
       <c r="E92">
-        <v>0.2315189614086889</v>
+        <v>-0.007447228575307024</v>
       </c>
       <c r="F92">
-        <v>-0.06692359478303375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01488416547699306</v>
+      </c>
+      <c r="G92">
+        <v>-0.02645331453266112</v>
+      </c>
+      <c r="H92">
+        <v>-0.1085407170093608</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06791176681919202</v>
+        <v>-0.2643505629824964</v>
       </c>
       <c r="C93">
-        <v>-0.05700774177867169</v>
+        <v>0.0003192402687640785</v>
       </c>
       <c r="D93">
-        <v>0.2542457631356124</v>
+        <v>0.3023751888579144</v>
       </c>
       <c r="E93">
-        <v>0.382103112373444</v>
+        <v>0.03008586993425843</v>
       </c>
       <c r="F93">
-        <v>0.03782583537144667</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.05084008340931823</v>
+      </c>
+      <c r="G93">
+        <v>0.01009530394373324</v>
+      </c>
+      <c r="H93">
+        <v>0.01116515334936276</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.241401727520802</v>
+        <v>-0.2642801417506407</v>
       </c>
       <c r="C94">
-        <v>-0.2036514548018627</v>
+        <v>-0.08008498065475234</v>
       </c>
       <c r="D94">
-        <v>0.1553652839787401</v>
+        <v>-0.1793655096315576</v>
       </c>
       <c r="E94">
-        <v>-0.1856117021113159</v>
+        <v>0.01589582969841516</v>
       </c>
       <c r="F94">
-        <v>-0.1821353385493881</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1974749230062035</v>
+      </c>
+      <c r="G94">
+        <v>0.2496673461791932</v>
+      </c>
+      <c r="H94">
+        <v>-0.3620894980028487</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.01050810469545515</v>
+        <v>-0.04525461686452569</v>
       </c>
       <c r="C95">
-        <v>-0.08708208478601018</v>
+        <v>-0.02936974856730756</v>
       </c>
       <c r="D95">
-        <v>-0.05121028199972363</v>
+        <v>-0.09142516615259076</v>
       </c>
       <c r="E95">
-        <v>-0.04617969672225161</v>
+        <v>0.0817370747632257</v>
       </c>
       <c r="F95">
-        <v>0.01724186522069571</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.00640768819117135</v>
+      </c>
+      <c r="G95">
+        <v>-0.04363631407175986</v>
+      </c>
+      <c r="H95">
+        <v>0.05173731780986277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1220798314252086</v>
+        <v>-0.1835759517317974</v>
       </c>
       <c r="C98">
-        <v>-0.1220972818187061</v>
+        <v>-0.05125675863636148</v>
       </c>
       <c r="D98">
-        <v>-0.02069219558726287</v>
+        <v>-0.05053188968790989</v>
       </c>
       <c r="E98">
-        <v>0.08726595028595677</v>
+        <v>0.06316384261046656</v>
       </c>
       <c r="F98">
-        <v>0.1467840109008439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.008322972917587932</v>
+      </c>
+      <c r="G98">
+        <v>-0.08260457968942174</v>
+      </c>
+      <c r="H98">
+        <v>0.3371103670272373</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01209090068901636</v>
+        <v>-0.01382672143671818</v>
       </c>
       <c r="C101">
-        <v>-0.0001962299828868956</v>
+        <v>0.0009210174370087621</v>
       </c>
       <c r="D101">
-        <v>-0.02522707646082663</v>
+        <v>-0.01748918479306309</v>
       </c>
       <c r="E101">
-        <v>-0.07265521762954431</v>
+        <v>-0.003806241544475595</v>
       </c>
       <c r="F101">
-        <v>0.1774982868068637</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.01470667766738024</v>
+      </c>
+      <c r="G101">
+        <v>-0.1028580722274639</v>
+      </c>
+      <c r="H101">
+        <v>-0.01717873811644566</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1001199278352229</v>
+        <v>-0.09724444283396896</v>
       </c>
       <c r="C102">
-        <v>-0.0708642062738709</v>
+        <v>-0.02769738061010571</v>
       </c>
       <c r="D102">
-        <v>0.03454838755075774</v>
+        <v>-0.0921789211202296</v>
       </c>
       <c r="E102">
-        <v>-0.07113472743252343</v>
+        <v>-0.003802260179717879</v>
       </c>
       <c r="F102">
-        <v>-0.08699478539402235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.04866516254434398</v>
+      </c>
+      <c r="G102">
+        <v>0.06641331497494657</v>
+      </c>
+      <c r="H102">
+        <v>-0.05578752156348154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04153243085509118</v>
+        <v>-0.01430037666344765</v>
       </c>
       <c r="C103">
-        <v>-0.01548012344134153</v>
+        <v>-0.00533645571567266</v>
       </c>
       <c r="D103">
-        <v>0.006709585700379574</v>
+        <v>-0.01700900674584101</v>
       </c>
       <c r="E103">
-        <v>-0.04441605530801706</v>
+        <v>-0.01197256303557608</v>
       </c>
       <c r="F103">
-        <v>-0.002275773317122165</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.007077811057949085</v>
+      </c>
+      <c r="G103">
+        <v>-0.003189345414252316</v>
+      </c>
+      <c r="H103">
+        <v>-0.01207238861156187</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.157708226387099</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9662174641709055</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1118087984814965</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02742386853356009</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.130009137056497</v>
+      </c>
+      <c r="G104">
+        <v>0.007027469414542306</v>
+      </c>
+      <c r="H104">
+        <v>-0.04608568556190173</v>
       </c>
     </row>
   </sheetData>
